--- a/data/trans_orig/P04B1_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{077FC8D9-9BFE-4B7B-A80C-4FAAEB4700CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{421562DA-077A-4190-9F1D-96B9C5F67FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71D368C0-2B90-46B2-B458-3EA95258E3AF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDBAA3A7-F596-40E7-A88C-D3D8F6D87F95}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
   <si>
     <t>Población según si su vivienda tiene una temperatura suficientemente cálida durante los meses fríos en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>92,34%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>7,66%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>87,68%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>82,36%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>78,96%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>21,04%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>68,72%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>75,93%</t>
   </si>
   <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,49 +365,43 @@
     <t>88,79%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,49 +410,49 @@
     <t>77,26%</t>
   </si>
   <si>
-    <t>73,24%</t>
+    <t>73,62%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>75,74%</t>
   </si>
   <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>26,76%</t>
+    <t>26,38%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -467,109 +461,103 @@
     <t>23,66%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>79,47%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>69,0%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>31,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A03F17-1244-4745-AABB-D9B86FB5347E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8DF2B7-FD08-4696-9488-9117B781F2E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1919,7 +1907,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1922,13 @@
         <v>30964</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -1949,13 +1937,13 @@
         <v>30879</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
@@ -1964,13 +1952,13 @@
         <v>61843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2014,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2026,13 @@
         <v>482527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>652</v>
@@ -2053,13 +2041,13 @@
         <v>593772</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1101</v>
@@ -2068,13 +2056,13 @@
         <v>1076300</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2077,13 @@
         <v>141990</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>298</v>
@@ -2104,13 +2092,13 @@
         <v>202718</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>443</v>
@@ -2119,13 +2107,13 @@
         <v>344707</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2169,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2181,13 @@
         <v>203339</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>181</v>
@@ -2208,13 +2196,13 @@
         <v>151371</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>318</v>
@@ -2223,13 +2211,13 @@
         <v>354710</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2232,13 @@
         <v>656089</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>881</v>
@@ -2259,13 +2247,13 @@
         <v>717063</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1506</v>
@@ -2274,13 +2262,13 @@
         <v>1373152</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2336,13 @@
         <v>2280953</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>3626</v>
@@ -2363,13 +2351,13 @@
         <v>2551488</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>5882</v>
@@ -2378,13 +2366,13 @@
         <v>4832442</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2387,13 @@
         <v>1098647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>1730</v>
@@ -2414,13 +2402,13 @@
         <v>1276221</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>2842</v>
@@ -2429,13 +2417,13 @@
         <v>2374868</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2479,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B1_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421562DA-077A-4190-9F1D-96B9C5F67FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0092722A-A2E9-46A9-A01E-2CA42FD79BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDBAA3A7-F596-40E7-A88C-D3D8F6D87F95}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A607F91F-E6C4-419D-9C58-FC42D7C4A1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si su vivienda tiene una temperatura suficientemente cálida durante los meses fríos en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,430 +134,442 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8DF2B7-FD08-4696-9488-9117B781F2E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857C76DF-9E7C-4D41-9347-A3D17C7C04D7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1093,7 +1105,7 @@
         <v>303</v>
       </c>
       <c r="D4" s="7">
-        <v>240358</v>
+        <v>288718</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1108,7 +1120,7 @@
         <v>479</v>
       </c>
       <c r="I4" s="7">
-        <v>242002</v>
+        <v>258000</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1123,7 +1135,7 @@
         <v>782</v>
       </c>
       <c r="N4" s="7">
-        <v>482359</v>
+        <v>546717</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1144,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>19940</v>
+        <v>22725</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1159,7 +1171,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>29401</v>
+        <v>31635</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1174,7 +1186,7 @@
         <v>87</v>
       </c>
       <c r="N5" s="7">
-        <v>49341</v>
+        <v>54360</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1195,7 +1207,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1210,7 +1222,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1225,7 +1237,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1248,7 +1260,7 @@
         <v>335</v>
       </c>
       <c r="D7" s="7">
-        <v>455333</v>
+        <v>454935</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1263,7 +1275,7 @@
         <v>607</v>
       </c>
       <c r="I7" s="7">
-        <v>464855</v>
+        <v>431686</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1278,16 +1290,16 @@
         <v>942</v>
       </c>
       <c r="N7" s="7">
-        <v>920189</v>
+        <v>886621</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1299,46 +1311,46 @@
         <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>63964</v>
+        <v>63455</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>110</v>
       </c>
       <c r="I8" s="7">
-        <v>89711</v>
+        <v>83283</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>157</v>
       </c>
       <c r="N8" s="7">
-        <v>153675</v>
+        <v>146738</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,7 +1362,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1365,7 +1377,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1380,7 +1392,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1394,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1403,46 +1415,46 @@
         <v>293</v>
       </c>
       <c r="D10" s="7">
-        <v>265406</v>
+        <v>260434</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>443</v>
       </c>
       <c r="I10" s="7">
-        <v>309242</v>
+        <v>288969</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>736</v>
       </c>
       <c r="N10" s="7">
-        <v>574648</v>
+        <v>549404</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,46 +1466,46 @@
         <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>56834</v>
+        <v>55616</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>64042</v>
+        <v>60159</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
       </c>
       <c r="N11" s="7">
-        <v>120876</v>
+        <v>115774</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,7 +1517,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1520,7 +1532,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1535,7 +1547,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1549,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1558,46 +1570,46 @@
         <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>254454</v>
+        <v>247665</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>466</v>
       </c>
       <c r="I13" s="7">
-        <v>334349</v>
+        <v>388927</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>690</v>
       </c>
       <c r="N13" s="7">
-        <v>588803</v>
+        <v>636591</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,46 +1621,46 @@
         <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>67786</v>
+        <v>64892</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
       </c>
       <c r="I14" s="7">
-        <v>94048</v>
+        <v>86629</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>200</v>
       </c>
       <c r="N14" s="7">
-        <v>161834</v>
+        <v>151522</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,7 +1672,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1675,7 +1687,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428397</v>
+        <v>475556</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1690,7 +1702,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750637</v>
+        <v>788113</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1704,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1713,46 +1725,46 @@
         <v>194</v>
       </c>
       <c r="D16" s="7">
-        <v>134168</v>
+        <v>122162</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>390</v>
       </c>
       <c r="I16" s="7">
-        <v>211154</v>
+        <v>215504</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>584</v>
       </c>
       <c r="N16" s="7">
-        <v>345322</v>
+        <v>337666</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,46 +1776,46 @@
         <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>61081</v>
+        <v>55234</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>48359</v>
+        <v>43275</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>188</v>
       </c>
       <c r="N17" s="7">
-        <v>109440</v>
+        <v>98509</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,7 +1827,7 @@
         <v>277</v>
       </c>
       <c r="D18" s="7">
-        <v>195249</v>
+        <v>177396</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1830,7 +1842,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1845,7 +1857,7 @@
         <v>772</v>
       </c>
       <c r="N18" s="7">
-        <v>454762</v>
+        <v>436175</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1859,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1868,46 +1880,46 @@
         <v>321</v>
       </c>
       <c r="D19" s="7">
-        <v>245368</v>
+        <v>238592</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>408</v>
       </c>
       <c r="I19" s="7">
-        <v>244743</v>
+        <v>228203</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>729</v>
       </c>
       <c r="N19" s="7">
-        <v>490111</v>
+        <v>466795</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,43 +1931,43 @@
         <v>49</v>
       </c>
       <c r="D20" s="7">
-        <v>30964</v>
+        <v>30177</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
       </c>
       <c r="I20" s="7">
-        <v>30879</v>
+        <v>28853</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>101</v>
       </c>
       <c r="N20" s="7">
-        <v>61843</v>
+        <v>59030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>121</v>
@@ -1970,7 +1982,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276332</v>
+        <v>268769</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1985,7 +1997,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2000,7 +2012,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>551954</v>
+        <v>525825</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2023,7 +2035,7 @@
         <v>449</v>
       </c>
       <c r="D22" s="7">
-        <v>482527</v>
+        <v>482309</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>123</v>
@@ -2032,37 +2044,37 @@
         <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>652</v>
       </c>
       <c r="I22" s="7">
-        <v>593772</v>
+        <v>653159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1101</v>
       </c>
       <c r="N22" s="7">
-        <v>1076300</v>
+        <v>1135467</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,46 +2086,46 @@
         <v>145</v>
       </c>
       <c r="D23" s="7">
-        <v>141990</v>
+        <v>138900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>298</v>
       </c>
       <c r="I23" s="7">
-        <v>202718</v>
+        <v>188923</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>443</v>
       </c>
       <c r="N23" s="7">
-        <v>344707</v>
+        <v>327823</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2137,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>624517</v>
+        <v>621209</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2140,7 +2152,7 @@
         <v>950</v>
       </c>
       <c r="I24" s="7">
-        <v>796490</v>
+        <v>842082</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2155,7 +2167,7 @@
         <v>1544</v>
       </c>
       <c r="N24" s="7">
-        <v>1421007</v>
+        <v>1463290</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2169,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2178,46 +2190,46 @@
         <v>137</v>
       </c>
       <c r="D25" s="7">
-        <v>203339</v>
+        <v>373247</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>181</v>
       </c>
       <c r="I25" s="7">
-        <v>151371</v>
+        <v>125259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>318</v>
       </c>
       <c r="N25" s="7">
-        <v>354710</v>
+        <v>498506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,46 +2241,46 @@
         <v>625</v>
       </c>
       <c r="D26" s="7">
-        <v>656089</v>
+        <v>555473</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>881</v>
       </c>
       <c r="I26" s="7">
-        <v>717063</v>
+        <v>592472</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1506</v>
       </c>
       <c r="N26" s="7">
-        <v>1373152</v>
+        <v>1147946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2292,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2295,7 +2307,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2310,7 +2322,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2333,46 +2345,46 @@
         <v>2256</v>
       </c>
       <c r="D28" s="7">
-        <v>2280953</v>
+        <v>2468061</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>3626</v>
       </c>
       <c r="I28" s="7">
-        <v>2551488</v>
+        <v>2589706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>5882</v>
       </c>
       <c r="N28" s="7">
-        <v>4832442</v>
+        <v>5057767</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,46 +2396,46 @@
         <v>1112</v>
       </c>
       <c r="D29" s="7">
-        <v>1098647</v>
+        <v>986473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>1730</v>
       </c>
       <c r="I29" s="7">
-        <v>1276221</v>
+        <v>1115229</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>2842</v>
       </c>
       <c r="N29" s="7">
-        <v>2374868</v>
+        <v>2101702</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2447,7 @@
         <v>3368</v>
       </c>
       <c r="D30" s="7">
-        <v>3379600</v>
+        <v>3454534</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2450,7 +2462,7 @@
         <v>5356</v>
       </c>
       <c r="I30" s="7">
-        <v>3827709</v>
+        <v>3704935</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2465,7 +2477,7 @@
         <v>8724</v>
       </c>
       <c r="N30" s="7">
-        <v>7207310</v>
+        <v>7159469</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2479,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
